--- a/fhir/core/2.2.0/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-patient.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ipa/StructureDefinition/ipa-patient</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -491,10 +488,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pat-1:At least one of Patient.identifier.system or Patient.identifier.type or Patient.identifier.assigner SHALL be present {system.exists() or type.exists() or assigner.exists()}</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -505,203 +498,6 @@
   </si>
   <si>
     <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique within the system.</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.identifier:cpr</t>
@@ -728,30 +524,6 @@
   </si>
   <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:cpr.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -779,11 +551,10 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pat-4:If Patient.link is present, then Patient.active SHALL be present {link.exists() implies active.exists()}</t>
-  </si>
-  <si>
     <t>statusCode</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -812,10 +583,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ipa-pat-2:Either Patient.name.given and/or Patient.name.family and/or Patient.name.text SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists() or text.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}ipa-pat-3:To be usable for a wide range of internationally available applications, the Patient.name.text SHOULD be present. {text.exists()}</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -840,12 +607,38 @@
     <t>Patient.name.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Patient.name:official.extension</t>
   </si>
   <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>Patient.name:official.use</t>
   </si>
   <si>
@@ -862,6 +655,9 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>The use of a human name.</t>
@@ -1008,6 +804,10 @@
   </si>
   <si>
     <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>Time period when name was/is in use</t>
@@ -1455,6 +1255,10 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1462,6 +1266,9 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.dk/fhir/core/ValueSet/dk-marital-status</t>
@@ -1662,6 +1469,10 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -1944,10 +1755,6 @@
     <t>There are multiple use cases:   
 * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
 * Distribution of patient information across multiple servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipa-pat-4
-</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -2122,21 +1929,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2313,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO94"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2346,7 +2138,7 @@
     <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.9609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
@@ -2489,7 +2281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2604,7 +2396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2721,7 +2513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2836,7 +2628,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2953,7 +2745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -3070,7 +2862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -3187,7 +2979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3304,7 +3096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -3421,7 +3213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -3540,7 +3332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3559,7 +3351,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -3637,32 +3429,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AO11" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3692,7 +3486,9 @@
         <v>160</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3740,19 +3536,19 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>162</v>
@@ -3764,121 +3560,125 @@
         <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3887,12 +3687,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3903,31 +3703,31 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3952,37 +3752,35 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3991,29 +3789,31 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>81</v>
       </c>
@@ -4034,19 +3834,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -4071,13 +3871,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -4095,13 +3895,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -4110,27 +3910,27 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4150,10 +3950,10 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>190</v>
@@ -4161,12 +3961,8 @@
       <c r="M16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4178,7 +3974,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -4214,7 +4010,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4226,10 +4022,10 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
@@ -4238,50 +4034,50 @@
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4295,7 +4091,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -4319,34 +4115,34 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>81</v>
@@ -4355,18 +4151,18 @@
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4374,7 +4170,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4383,28 +4179,32 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>81</v>
@@ -4422,13 +4222,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4446,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4461,27 +4261,27 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
+      <c r="B19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4504,18 +4304,20 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4563,7 +4365,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4578,63 +4380,61 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4682,19 +4482,19 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>227</v>
@@ -4712,23 +4512,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4737,18 +4537,20 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4797,22 +4599,22 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
@@ -4821,22 +4623,22 @@
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4852,20 +4654,18 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4902,19 +4702,19 @@
         <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4926,10 +4726,10 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
@@ -4938,18 +4738,18 @@
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4960,32 +4760,28 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -5009,13 +4805,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5033,13 +4829,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -5048,7 +4844,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -5057,18 +4853,18 @@
         <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5091,19 +4887,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -5128,13 +4922,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5152,7 +4946,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5167,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -5176,18 +4970,18 @@
         <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5198,7 +4992,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5210,19 +5004,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5235,7 +5029,7 @@
         <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>81</v>
@@ -5271,13 +5065,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5286,27 +5080,27 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5314,13 +5108,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>81</v>
@@ -5329,18 +5123,20 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5352,7 +5148,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5364,13 +5160,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5388,7 +5184,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5403,27 +5199,27 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5446,16 +5242,20 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5503,7 +5303,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5518,27 +5318,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5555,24 +5355,26 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5620,7 +5422,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5635,27 +5437,27 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5666,38 +5468,36 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5741,42 +5541,42 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5787,32 +5587,28 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5848,90 +5644,88 @@
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5967,19 +5761,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5991,32 +5785,34 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6037,13 +5833,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6094,22 +5890,22 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
@@ -6124,23 +5920,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6152,17 +5950,15 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6199,19 +5995,19 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6226,7 +6022,7 @@
         <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6241,12 +6037,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6254,7 +6050,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -6272,29 +6068,29 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>81</v>
@@ -6306,13 +6102,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6330,7 +6126,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6345,7 +6141,7 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -6354,18 +6150,18 @@
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6388,20 +6184,18 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6413,7 +6207,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -6425,13 +6219,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6449,7 +6243,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6464,7 +6258,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -6473,26 +6267,26 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6507,18 +6301,20 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6530,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6362,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6581,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -6590,22 +6386,22 @@
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6624,17 +6420,15 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6647,7 +6441,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6683,7 +6477,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6698,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6707,29 +6501,29 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6741,13 +6535,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6762,7 +6556,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6798,13 +6592,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6813,7 +6607,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6822,29 +6616,29 @@
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6856,15 +6650,17 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6877,7 +6673,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6913,13 +6709,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6928,7 +6724,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6937,22 +6733,22 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6971,18 +6767,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7030,7 +6824,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7045,7 +6839,7 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -7054,29 +6848,29 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -7088,20 +6882,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7113,7 +6903,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -7149,13 +6939,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -7164,27 +6954,27 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7198,7 +6988,7 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
@@ -7207,20 +6997,18 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7244,13 +7032,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7268,7 +7056,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7283,27 +7071,27 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7317,7 +7105,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -7326,19 +7114,17 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7351,7 +7137,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7387,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7402,27 +7188,27 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7439,25 +7225,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7482,13 +7266,11 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7506,7 +7288,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7521,27 +7303,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7552,7 +7334,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7561,22 +7343,22 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7625,13 +7407,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7640,27 +7422,27 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7671,7 +7453,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7683,16 +7465,20 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>158</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7740,46 +7526,46 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>162</v>
+        <v>422</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7798,18 +7584,20 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>164</v>
+        <v>427</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7845,19 +7633,19 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>167</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7869,13 +7657,13 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>430</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7887,16 +7675,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7917,13 +7703,13 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>191</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7974,22 +7760,22 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>81</v>
@@ -8004,25 +7790,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -8034,15 +7818,17 @@
         <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8091,7 +7877,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8106,7 +7892,7 @@
         <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -8121,23 +7907,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8149,19 +7935,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>386</v>
+        <v>137</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -8174,7 +7960,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -8186,13 +7972,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8210,22 +7996,22 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -8234,18 +8020,18 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8256,7 +8042,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8265,21 +8051,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8291,7 +8077,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8303,13 +8089,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>173</v>
+        <v>403</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8327,13 +8113,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8342,27 +8128,27 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8382,22 +8168,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8410,7 +8194,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8446,7 +8230,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8461,27 +8245,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8501,19 +8285,23 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8525,7 +8313,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>81</v>
@@ -8561,7 +8349,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8576,31 +8364,31 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>414</v>
+        <v>267</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8616,19 +8404,21 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8640,7 +8430,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -8676,7 +8466,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8691,31 +8481,31 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8731,21 +8521,21 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8757,7 +8547,7 @@
         <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>81</v>
@@ -8769,13 +8559,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8793,7 +8583,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8808,31 +8598,31 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>431</v>
+        <v>277</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8848,19 +8638,21 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>467</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8908,7 +8700,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8917,37 +8709,37 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8963,16 +8755,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8987,7 +8779,7 @@
         <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>81</v>
@@ -9023,7 +8815,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9038,27 +8830,27 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9069,7 +8861,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9078,21 +8870,23 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9140,13 +8934,13 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
@@ -9155,27 +8949,27 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9195,21 +8989,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>190</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>191</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9221,7 +9013,7 @@
         <v>81</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>81</v>
@@ -9257,7 +9049,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>192</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9269,10 +9061,10 @@
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -9281,29 +9073,29 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9315,18 +9107,18 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9350,11 +9142,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9372,77 +9166,77 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>467</v>
+        <v>172</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>471</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>475</v>
+        <v>143</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9491,42 +9285,42 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>476</v>
+        <v>131</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9534,10 +9328,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9549,19 +9343,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9586,13 +9380,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9610,13 +9404,13 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
@@ -9625,27 +9419,27 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>162</v>
+        <v>494</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9656,7 +9450,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9668,19 +9462,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>487</v>
+        <v>165</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9729,53 +9523,53 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>492</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>162</v>
+        <v>502</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9787,15 +9581,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>158</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>159</v>
+        <v>507</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9832,58 +9628,58 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>133</v>
+        <v>505</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9902,16 +9698,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>506</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>515</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9961,7 +9757,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>167</v>
+        <v>504</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9973,66 +9769,62 @@
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>190</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -10080,22 +9872,22 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>500</v>
+        <v>192</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
@@ -10110,16 +9902,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10138,18 +9930,18 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10173,31 +9965,31 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>501</v>
+        <v>198</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10209,30 +10001,30 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>507</v>
+        <v>172</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10252,21 +10044,21 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10314,7 +10106,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10323,33 +10115,33 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10360,7 +10152,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -10369,23 +10161,21 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>326</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10409,13 +10199,13 @@
         <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>81</v>
+        <v>533</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10433,13 +10223,13 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
@@ -10448,27 +10238,27 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10491,18 +10281,18 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>363</v>
+        <v>537</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10550,7 +10340,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10559,33 +10349,33 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>368</v>
+        <v>162</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10605,21 +10395,21 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>335</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10643,13 +10433,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10667,7 +10457,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10682,27 +10472,27 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10722,20 +10512,22 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>214</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10784,7 +10576,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10793,33 +10585,33 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10830,28 +10622,32 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>207</v>
+        <v>425</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10899,13 +10695,13 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -10914,10 +10710,10 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10929,12 +10725,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10945,7 +10741,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10957,20 +10753,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>487</v>
+        <v>189</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>540</v>
+        <v>190</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11018,25 +10810,25 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>539</v>
+        <v>192</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>544</v>
+        <v>172</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -11048,23 +10840,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -11076,15 +10868,17 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11133,22 +10927,22 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -11163,16 +10957,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11185,24 +10979,26 @@
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>164</v>
+        <v>437</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11250,7 +11046,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>167</v>
+        <v>438</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11265,7 +11061,7 @@
         <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -11280,48 +11076,46 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>563</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11369,42 +11163,42 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>567</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11424,23 +11218,19 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11464,13 +11254,13 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>114</v>
+        <v>571</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11488,7 +11278,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>88</v>
@@ -11503,1914 +11293,22 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>555</v>
+        <v>172</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AC80" s="2"/>
-      <c r="AD80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO94" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO94">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fhir/core/2.2.0/StructureDefinition-dk-core-patient.xlsx
+++ b/fhir/core/2.2.0/StructureDefinition-dk-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
